--- a/data/guitar_strings_params.xlsx
+++ b/data/guitar_strings_params.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Home\Music\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vcs\git\docs\classical-guitar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F04388-9842-4007-ACC8-6DF230F2EB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F26CC5-4C37-4D0F-AE59-8BBA973856DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="24240" xr2:uid="{2E890D8E-1EF9-48C8-93AC-046C199C6B8D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="5" xr2:uid="{2E890D8E-1EF9-48C8-93AC-046C199C6B8D}"/>
   </bookViews>
   <sheets>
     <sheet name="EJ43" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
   <si>
     <t>name</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>J4502FF</t>
-  </si>
-  <si>
-    <t>density (?)</t>
   </si>
   <si>
     <t>J4503FF</t>
@@ -559,14 +556,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E08288C-F451-488C-ADF5-051FF7808691}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -586,7 +583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -606,7 +603,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -626,7 +623,7 @@
         <v>11.2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -646,7 +643,7 @@
         <v>11.7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>21</v>
       </c>
@@ -666,7 +663,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>22</v>
       </c>
@@ -686,7 +683,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -719,12 +716,12 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -744,7 +741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -764,7 +761,7 @@
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -784,7 +781,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -804,7 +801,7 @@
         <v>12.9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -824,7 +821,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>34</v>
       </c>
@@ -844,7 +841,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -875,12 +872,12 @@
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -900,7 +897,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -920,7 +917,7 @@
         <v>15.3</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -940,7 +937,7 @@
         <v>11.6</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -960,7 +957,7 @@
         <v>12.1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -980,7 +977,7 @@
         <v>15.6</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1000,7 +997,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1033,12 +1030,12 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1055,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1078,7 +1075,7 @@
         <v>15.8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -1098,7 +1095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -1118,7 +1115,7 @@
         <v>12.4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -1138,7 +1135,7 @@
         <v>16.3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1158,7 +1155,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1188,15 +1185,15 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection sqref="A1:F7"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1210,13 +1207,13 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>36</v>
       </c>
@@ -1236,7 +1233,7 @@
         <v>21.29</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1256,9 +1253,9 @@
         <v>15.35</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -1276,9 +1273,9 @@
         <v>14.32</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -1296,9 +1293,9 @@
         <v>13.64</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -1316,9 +1313,9 @@
         <v>14.7</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
@@ -1345,14 +1342,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27F174DE-CC2E-4D4C-A29D-1F98FEBEDE90}">
   <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1366,15 +1365,15 @@
         <v>17</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -1392,9 +1391,9 @@
         <v>22.74</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>7</v>
@@ -1412,9 +1411,9 @@
         <v>16.27</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>9</v>
@@ -1432,9 +1431,9 @@
         <v>15.02</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -1452,9 +1451,9 @@
         <v>15.28</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>13</v>
@@ -1472,9 +1471,9 @@
         <v>16.97</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>15</v>
